--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_24_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_24_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>887574.6554178334</v>
+        <v>918626.2860619316</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2392619.311148338</v>
+        <v>2394192.127575332</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18990378.27207871</v>
+        <v>18989270.25808961</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6406766.94743912</v>
+        <v>6406853.427028631</v>
       </c>
     </row>
     <row r="11">
@@ -8690,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>77.93639933769609</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L11" t="n">
-        <v>42.17302860521352</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M11" t="n">
-        <v>0.141223971726788</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.39931236355852</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P11" t="n">
-        <v>62.40339073079662</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>35.90259171246743</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8927,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>77.93639933769612</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L14" t="n">
-        <v>42.17302860521357</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1412239717268449</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.39931236355858</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P14" t="n">
-        <v>62.40339073079667</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>35.90259171246745</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9164,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>77.93639933769609</v>
+        <v>77.83409231047494</v>
       </c>
       <c r="L17" t="n">
-        <v>42.17302860521352</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M17" t="n">
-        <v>0.141223971726788</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.39931236355852</v>
+        <v>13.26380076792782</v>
       </c>
       <c r="P17" t="n">
-        <v>62.40339073079662</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9243,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>35.90259171246743</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9401,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>77.93639933769609</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L20" t="n">
-        <v>42.17302860521352</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M20" t="n">
-        <v>0.141223971726788</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.39931236355852</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P20" t="n">
-        <v>62.40339073079662</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9480,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>35.90259171246743</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9638,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>77.93639933769609</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L23" t="n">
-        <v>42.17302860521352</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M23" t="n">
-        <v>0.141223971726788</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.39931236355852</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P23" t="n">
-        <v>62.40339073079662</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9717,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>35.90259171246743</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9875,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>77.93639933769609</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L26" t="n">
-        <v>42.17302860521352</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M26" t="n">
-        <v>0.141223971726788</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.39931236355852</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P26" t="n">
-        <v>62.40339073079662</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9954,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>35.90259171246743</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10112,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>77.93639933769609</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L29" t="n">
-        <v>42.17302860521352</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M29" t="n">
-        <v>0.141223971726788</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.39931236355852</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P29" t="n">
-        <v>62.40339073079662</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10191,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>35.90259171246743</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10349,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>77.93639933769609</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L32" t="n">
-        <v>42.17302860521352</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M32" t="n">
-        <v>0.141223971726788</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.39931236355852</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P32" t="n">
-        <v>62.40339073079662</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10428,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>35.90259171246743</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10586,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>77.93639933769609</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L35" t="n">
-        <v>42.17302860521352</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M35" t="n">
-        <v>0.141223971726788</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.39931236355852</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P35" t="n">
-        <v>62.40339073079662</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10665,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>35.90259171246743</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10823,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>77.93639933769609</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L38" t="n">
-        <v>42.17302860521352</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M38" t="n">
-        <v>0.141223971726788</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.39931236355852</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P38" t="n">
-        <v>62.40339073079662</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10902,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>35.90259171246743</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>77.93639933769609</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L41" t="n">
-        <v>42.17302860521352</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M41" t="n">
-        <v>0.141223971726788</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.39931236355852</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P41" t="n">
-        <v>62.40339073079662</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>35.90259171246743</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>77.93639933769609</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L44" t="n">
-        <v>42.17302860521352</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M44" t="n">
-        <v>0.141223971726788</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.39931236355852</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P44" t="n">
-        <v>62.40339073079662</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>35.90259171246743</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22559,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.34184669331069</v>
+        <v>22.38652970403251</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>22.20985652598359</v>
+        <v>22.20985652598358</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23270,16 +23272,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.67247144649</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H11" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I11" t="n">
-        <v>233.6960892616871</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J11" t="n">
-        <v>58.04787051854379</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.82473475935979</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R11" t="n">
-        <v>177.7417084225297</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S11" t="n">
-        <v>223.6890190097018</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T11" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H12" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I12" t="n">
-        <v>107.5907987307646</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J12" t="n">
-        <v>55.77366116803449</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.12417261947326</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R12" t="n">
-        <v>137.5132525315004</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S12" t="n">
-        <v>202.9728674021163</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T12" t="n">
-        <v>228.9995194687267</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H13" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I13" t="n">
-        <v>160.8814820690915</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J13" t="n">
-        <v>116.1666473818438</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K13" t="n">
-        <v>60.98464853068948</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L13" t="n">
-        <v>27.13168239150396</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M13" t="n">
-        <v>21.92043642499794</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N13" t="n">
-        <v>10.42782837918963</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O13" t="n">
-        <v>38.5113087730376</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P13" t="n">
-        <v>62.28378240539013</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q13" t="n">
-        <v>132.5538037180701</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R13" t="n">
-        <v>210.8055304093206</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S13" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T13" t="n">
-        <v>217.1128162575615</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.67247144649</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H14" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I14" t="n">
-        <v>233.6960892616871</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J14" t="n">
-        <v>58.04787051854379</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.82473475935984</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R14" t="n">
-        <v>177.7417084225297</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S14" t="n">
-        <v>223.6890190097018</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T14" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H15" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I15" t="n">
-        <v>107.5907987307646</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J15" t="n">
-        <v>55.77366116803451</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.12417261947328</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R15" t="n">
-        <v>137.5132525315004</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S15" t="n">
-        <v>202.9728674021163</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T15" t="n">
-        <v>228.9995194687267</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H16" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I16" t="n">
-        <v>160.8814820690915</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J16" t="n">
-        <v>116.1666473818438</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K16" t="n">
-        <v>60.9846485306895</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L16" t="n">
-        <v>27.13168239150396</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M16" t="n">
-        <v>21.92043642499797</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N16" t="n">
-        <v>10.42782837918966</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51130877303761</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P16" t="n">
-        <v>62.28378240539014</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q16" t="n">
-        <v>132.5538037180701</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R16" t="n">
-        <v>210.8055304093206</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S16" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T16" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.67247144649</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H17" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I17" t="n">
-        <v>233.6960892616871</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J17" t="n">
-        <v>58.04787051854379</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.82473475935979</v>
+        <v>62.73788191118646</v>
       </c>
       <c r="R17" t="n">
-        <v>177.7417084225297</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S17" t="n">
-        <v>223.6890190097018</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T17" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H18" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I18" t="n">
-        <v>107.5907987307646</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J18" t="n">
-        <v>55.77366116803449</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.12417261947326</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R18" t="n">
-        <v>137.5132525315004</v>
+        <v>137.4865345694365</v>
       </c>
       <c r="S18" t="n">
-        <v>202.9728674021163</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T18" t="n">
-        <v>228.9995194687267</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H19" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I19" t="n">
-        <v>160.8814820690915</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J19" t="n">
-        <v>116.1666473818438</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K19" t="n">
-        <v>60.98464853068948</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L19" t="n">
-        <v>27.13168239150396</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M19" t="n">
-        <v>21.92043642499794</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N19" t="n">
-        <v>10.42782837918963</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O19" t="n">
-        <v>38.5113087730376</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P19" t="n">
-        <v>62.28378240539013</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q19" t="n">
-        <v>132.5538037180701</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R19" t="n">
-        <v>210.8055304093206</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S19" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T19" t="n">
-        <v>217.1128162575615</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,16 +23983,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.67247144649</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H20" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I20" t="n">
-        <v>233.6960892616871</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J20" t="n">
-        <v>58.04787051854379</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.82473475935979</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R20" t="n">
-        <v>177.7417084225297</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S20" t="n">
-        <v>223.6890190097018</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T20" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H21" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I21" t="n">
-        <v>107.5907987307646</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J21" t="n">
-        <v>55.77366116803449</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.12417261947326</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R21" t="n">
-        <v>137.5132525315004</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S21" t="n">
-        <v>202.9728674021163</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T21" t="n">
-        <v>228.9995194687267</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H22" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I22" t="n">
-        <v>160.8814820690915</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J22" t="n">
-        <v>116.1666473818438</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K22" t="n">
-        <v>60.98464853068948</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L22" t="n">
-        <v>27.13168239150396</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M22" t="n">
-        <v>21.92043642499794</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N22" t="n">
-        <v>10.42782837918963</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O22" t="n">
-        <v>38.5113087730376</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P22" t="n">
-        <v>62.28378240539013</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q22" t="n">
-        <v>132.5538037180701</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R22" t="n">
-        <v>210.8055304093206</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S22" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T22" t="n">
-        <v>217.1128162575615</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,16 +24220,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.67247144649</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H23" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I23" t="n">
-        <v>233.6960892616871</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J23" t="n">
-        <v>58.04787051854379</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.82473475935979</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R23" t="n">
-        <v>177.7417084225297</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S23" t="n">
-        <v>223.6890190097018</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T23" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H24" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I24" t="n">
-        <v>107.5907987307646</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J24" t="n">
-        <v>55.77366116803449</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.12417261947326</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R24" t="n">
-        <v>137.5132525315004</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S24" t="n">
-        <v>202.9728674021163</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T24" t="n">
-        <v>228.9995194687267</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H25" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I25" t="n">
-        <v>160.8814820690915</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J25" t="n">
-        <v>116.1666473818438</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K25" t="n">
-        <v>60.98464853068948</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L25" t="n">
-        <v>27.13168239150396</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M25" t="n">
-        <v>21.92043642499794</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N25" t="n">
-        <v>10.42782837918963</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O25" t="n">
-        <v>38.5113087730376</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P25" t="n">
-        <v>62.28378240539013</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q25" t="n">
-        <v>132.5538037180701</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R25" t="n">
-        <v>210.8055304093206</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S25" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T25" t="n">
-        <v>217.1128162575615</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,16 +24457,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.67247144649</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H26" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I26" t="n">
-        <v>233.6960892616871</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J26" t="n">
-        <v>58.04787051854379</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.82473475935979</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R26" t="n">
-        <v>177.7417084225297</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S26" t="n">
-        <v>223.6890190097018</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T26" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H27" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I27" t="n">
-        <v>107.5907987307646</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J27" t="n">
-        <v>55.77366116803449</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>19.12417261947326</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R27" t="n">
-        <v>137.5132525315004</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S27" t="n">
-        <v>202.9728674021163</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T27" t="n">
-        <v>228.9995194687267</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H28" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I28" t="n">
-        <v>160.8814820690915</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J28" t="n">
-        <v>116.1666473818438</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K28" t="n">
-        <v>60.98464853068948</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L28" t="n">
-        <v>27.13168239150396</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M28" t="n">
-        <v>21.92043642499794</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N28" t="n">
-        <v>10.42782837918963</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O28" t="n">
-        <v>38.5113087730376</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P28" t="n">
-        <v>62.28378240539013</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q28" t="n">
-        <v>132.5538037180701</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R28" t="n">
-        <v>210.8055304093206</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S28" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T28" t="n">
-        <v>217.1128162575615</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,16 +24694,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.67247144649</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H29" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I29" t="n">
-        <v>233.6960892616871</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J29" t="n">
-        <v>58.04787051854379</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.82473475935979</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R29" t="n">
-        <v>177.7417084225297</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S29" t="n">
-        <v>223.6890190097018</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T29" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H30" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I30" t="n">
-        <v>107.5907987307646</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J30" t="n">
-        <v>55.77366116803449</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>19.12417261947326</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R30" t="n">
-        <v>137.5132525315004</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S30" t="n">
-        <v>202.9728674021163</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T30" t="n">
-        <v>228.9995194687267</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H31" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I31" t="n">
-        <v>160.8814820690915</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J31" t="n">
-        <v>116.1666473818438</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K31" t="n">
-        <v>60.98464853068948</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L31" t="n">
-        <v>27.13168239150396</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M31" t="n">
-        <v>21.92043642499794</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N31" t="n">
-        <v>10.42782837918963</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O31" t="n">
-        <v>38.5113087730376</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P31" t="n">
-        <v>62.28378240539013</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q31" t="n">
-        <v>132.5538037180701</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R31" t="n">
-        <v>210.8055304093206</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S31" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T31" t="n">
-        <v>217.1128162575615</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,16 +24931,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.67247144649</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H32" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I32" t="n">
-        <v>233.6960892616871</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J32" t="n">
-        <v>58.04787051854379</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.82473475935979</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R32" t="n">
-        <v>177.7417084225297</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S32" t="n">
-        <v>223.6890190097018</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T32" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H33" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I33" t="n">
-        <v>107.5907987307646</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J33" t="n">
-        <v>55.77366116803449</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.12417261947326</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R33" t="n">
-        <v>137.5132525315004</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S33" t="n">
-        <v>202.9728674021163</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T33" t="n">
-        <v>228.9995194687267</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H34" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I34" t="n">
-        <v>160.8814820690915</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J34" t="n">
-        <v>116.1666473818438</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K34" t="n">
-        <v>60.98464853068948</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L34" t="n">
-        <v>27.13168239150396</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M34" t="n">
-        <v>21.92043642499794</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N34" t="n">
-        <v>10.42782837918963</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O34" t="n">
-        <v>38.5113087730376</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P34" t="n">
-        <v>62.28378240539013</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q34" t="n">
-        <v>132.5538037180701</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R34" t="n">
-        <v>210.8055304093206</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S34" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T34" t="n">
-        <v>217.1128162575615</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,16 +25168,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.67247144649</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H35" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I35" t="n">
-        <v>233.6960892616871</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J35" t="n">
-        <v>58.04787051854379</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.82473475935979</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R35" t="n">
-        <v>177.7417084225297</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S35" t="n">
-        <v>223.6890190097018</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T35" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H36" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I36" t="n">
-        <v>107.5907987307646</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J36" t="n">
-        <v>55.77366116803449</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>19.12417261947326</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R36" t="n">
-        <v>137.5132525315004</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S36" t="n">
-        <v>202.9728674021163</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T36" t="n">
-        <v>228.9995194687267</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H37" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I37" t="n">
-        <v>160.8814820690915</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J37" t="n">
-        <v>116.1666473818438</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K37" t="n">
-        <v>60.98464853068948</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L37" t="n">
-        <v>27.13168239150396</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M37" t="n">
-        <v>21.92043642499794</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N37" t="n">
-        <v>10.42782837918963</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O37" t="n">
-        <v>38.5113087730376</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P37" t="n">
-        <v>62.28378240539013</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q37" t="n">
-        <v>132.5538037180701</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R37" t="n">
-        <v>210.8055304093206</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S37" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T37" t="n">
-        <v>217.1128162575615</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,16 +25405,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.67247144649</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H38" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I38" t="n">
-        <v>233.6960892616871</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J38" t="n">
-        <v>58.04787051854379</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.82473475935979</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R38" t="n">
-        <v>177.7417084225297</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S38" t="n">
-        <v>223.6890190097018</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T38" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H39" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I39" t="n">
-        <v>107.5907987307646</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J39" t="n">
-        <v>55.77366116803449</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>19.12417261947326</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R39" t="n">
-        <v>137.5132525315004</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S39" t="n">
-        <v>202.9728674021163</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T39" t="n">
-        <v>228.9995194687267</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H40" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I40" t="n">
-        <v>160.8814820690915</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J40" t="n">
-        <v>116.1666473818438</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K40" t="n">
-        <v>60.98464853068948</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L40" t="n">
-        <v>27.13168239150396</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M40" t="n">
-        <v>21.92043642499794</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N40" t="n">
-        <v>10.42782837918963</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O40" t="n">
-        <v>38.5113087730376</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P40" t="n">
-        <v>62.28378240539013</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q40" t="n">
-        <v>132.5538037180701</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R40" t="n">
-        <v>210.8055304093206</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S40" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T40" t="n">
-        <v>217.1128162575615</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,16 +25642,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.67247144649</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H41" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I41" t="n">
-        <v>233.6960892616871</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J41" t="n">
-        <v>58.04787051854379</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.82473475935979</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R41" t="n">
-        <v>177.7417084225297</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S41" t="n">
-        <v>223.6890190097018</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T41" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H42" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I42" t="n">
-        <v>107.5907987307646</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J42" t="n">
-        <v>55.77366116803449</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>19.12417261947326</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R42" t="n">
-        <v>137.5132525315004</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S42" t="n">
-        <v>202.9728674021163</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T42" t="n">
-        <v>228.9995194687267</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H43" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I43" t="n">
-        <v>160.8814820690915</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J43" t="n">
-        <v>116.1666473818438</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K43" t="n">
-        <v>60.98464853068948</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L43" t="n">
-        <v>27.13168239150396</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M43" t="n">
-        <v>21.92043642499794</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N43" t="n">
-        <v>10.42782837918963</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O43" t="n">
-        <v>38.5113087730376</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P43" t="n">
-        <v>62.28378240539013</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q43" t="n">
-        <v>132.5538037180701</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R43" t="n">
-        <v>210.8055304093206</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S43" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T43" t="n">
-        <v>217.1128162575615</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,16 +25879,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.67247144649</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H44" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I44" t="n">
-        <v>233.6960892616871</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J44" t="n">
-        <v>58.04787051854379</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.82473475935979</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R44" t="n">
-        <v>177.7417084225297</v>
+        <v>177.6911867688939</v>
       </c>
       <c r="S44" t="n">
-        <v>223.6890190097018</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T44" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H45" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I45" t="n">
-        <v>107.5907987307646</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J45" t="n">
-        <v>55.77366116803449</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>19.12417261947326</v>
+        <v>19.06924187859266</v>
       </c>
       <c r="R45" t="n">
-        <v>137.5132525315004</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S45" t="n">
-        <v>202.9728674021163</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T45" t="n">
-        <v>228.9995194687267</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H46" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I46" t="n">
-        <v>160.8814820690915</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J46" t="n">
-        <v>116.1666473818438</v>
+        <v>116.1411408797722</v>
       </c>
       <c r="K46" t="n">
-        <v>60.98464853068948</v>
+        <v>60.94273351249801</v>
       </c>
       <c r="L46" t="n">
-        <v>27.13168239150396</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M46" t="n">
-        <v>21.92043642499794</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N46" t="n">
-        <v>10.42782837918963</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O46" t="n">
-        <v>38.5113087730376</v>
+        <v>38.4603154473067</v>
       </c>
       <c r="P46" t="n">
-        <v>62.28378240539013</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q46" t="n">
-        <v>132.5538037180701</v>
+        <v>132.5235940754596</v>
       </c>
       <c r="R46" t="n">
-        <v>210.8055304093206</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S46" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T46" t="n">
-        <v>217.1128162575615</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1069905.422227965</v>
+        <v>1069901.420864355</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>382490.8195814101</v>
+        <v>382501.2472244306</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>382490.8195814101</v>
+        <v>382501.2472244306</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>382490.8195814101</v>
+        <v>382501.2472244306</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>382490.8195814101</v>
+        <v>382501.2472244306</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>382490.8195814101</v>
+        <v>382501.2472244306</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>382490.8195814101</v>
+        <v>382501.2472244306</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>382490.8195814101</v>
+        <v>382501.2472244306</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>382490.8195814101</v>
+        <v>382501.2472244306</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>382490.8195814101</v>
+        <v>382501.2472244306</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>382490.8195814101</v>
+        <v>382501.2472244306</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>382490.8195814101</v>
+        <v>382501.2472244306</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>382490.8195814101</v>
+        <v>382501.2472244306</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594391.9012377581</v>
+        <v>594389.6782579748</v>
       </c>
       <c r="C2" t="n">
-        <v>594398.4677485824</v>
+        <v>594398.4677485827</v>
       </c>
       <c r="D2" t="n">
-        <v>594406.0775322419</v>
+        <v>594406.0775322423</v>
       </c>
       <c r="E2" t="n">
-        <v>200146.6755935831</v>
+        <v>200169.9444666722</v>
       </c>
       <c r="F2" t="n">
-        <v>200146.6755935832</v>
+        <v>200169.9444666722</v>
       </c>
       <c r="G2" t="n">
-        <v>200146.6755935831</v>
+        <v>200169.9444666723</v>
       </c>
       <c r="H2" t="n">
-        <v>200146.6755935831</v>
+        <v>200169.9444666722</v>
       </c>
       <c r="I2" t="n">
-        <v>200146.6755935831</v>
+        <v>200169.9444666722</v>
       </c>
       <c r="J2" t="n">
-        <v>200146.6755935831</v>
+        <v>200169.9444666722</v>
       </c>
       <c r="K2" t="n">
-        <v>200146.6755935831</v>
+        <v>200169.9444666722</v>
       </c>
       <c r="L2" t="n">
-        <v>200146.6755935831</v>
+        <v>200169.9444666722</v>
       </c>
       <c r="M2" t="n">
-        <v>200146.6755935831</v>
+        <v>200169.9444666722</v>
       </c>
       <c r="N2" t="n">
-        <v>200146.6755935831</v>
+        <v>200169.9444666722</v>
       </c>
       <c r="O2" t="n">
-        <v>200146.6755935831</v>
+        <v>200169.9444666723</v>
       </c>
       <c r="P2" t="n">
-        <v>200146.6755935831</v>
+        <v>200169.9444666722</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>299233.8782093477</v>
+        <v>288523.4171191895</v>
       </c>
       <c r="C3" t="n">
-        <v>29897.3894491624</v>
+        <v>40018.63863282875</v>
       </c>
       <c r="D3" t="n">
         <v>32585.62631485736</v>
       </c>
       <c r="E3" t="n">
-        <v>76825.91016684116</v>
+        <v>76986.64207082904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>434522.4534818855</v>
+        <v>438396.5295836807</v>
       </c>
       <c r="C4" t="n">
-        <v>423078.7314798641</v>
+        <v>423078.7314798642</v>
       </c>
       <c r="D4" t="n">
         <v>410331.9762394427</v>
       </c>
       <c r="E4" t="n">
-        <v>22226.80351296053</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="F4" t="n">
-        <v>22226.80351296054</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="G4" t="n">
-        <v>22226.80351296053</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="H4" t="n">
-        <v>22226.80351296053</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="I4" t="n">
-        <v>22226.80351296053</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="J4" t="n">
-        <v>22226.80351296053</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="K4" t="n">
-        <v>22226.80351296053</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="L4" t="n">
-        <v>22226.80351296053</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="M4" t="n">
-        <v>22226.80351296053</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="N4" t="n">
-        <v>22226.80351296053</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="O4" t="n">
-        <v>22226.80351296053</v>
+        <v>22195.34718442061</v>
       </c>
       <c r="P4" t="n">
-        <v>22226.80351296053</v>
+        <v>22195.34718442061</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40397.22488567898</v>
+        <v>40154.92008928722</v>
       </c>
       <c r="C5" t="n">
         <v>41112.97456555201</v>
@@ -26476,40 +26478,40 @@
         <v>41942.44098443807</v>
       </c>
       <c r="E5" t="n">
-        <v>10399.47950537606</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="F5" t="n">
-        <v>10399.47950537606</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="G5" t="n">
-        <v>10399.47950537606</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="H5" t="n">
-        <v>10399.47950537606</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="I5" t="n">
-        <v>10399.47950537606</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="J5" t="n">
-        <v>10399.47950537606</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="K5" t="n">
-        <v>10399.47950537606</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="L5" t="n">
-        <v>10399.47950537606</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="M5" t="n">
-        <v>10399.47950537606</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="N5" t="n">
-        <v>10399.47950537606</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="O5" t="n">
-        <v>10399.47950537606</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="P5" t="n">
-        <v>10399.47950537606</v>
+        <v>10403.84089748803</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-179761.6553391541</v>
+        <v>-172685.1885341826</v>
       </c>
       <c r="C6" t="n">
-        <v>100309.3722540038</v>
+        <v>90188.12307033782</v>
       </c>
       <c r="D6" t="n">
-        <v>109546.0339935038</v>
+        <v>109546.0339935042</v>
       </c>
       <c r="E6" t="n">
-        <v>90694.4824084054</v>
+        <v>90584.11431393449</v>
       </c>
       <c r="F6" t="n">
-        <v>167520.3925752466</v>
+        <v>167570.7563847635</v>
       </c>
       <c r="G6" t="n">
-        <v>167520.3925752466</v>
+        <v>167570.7563847636</v>
       </c>
       <c r="H6" t="n">
-        <v>167520.3925752465</v>
+        <v>167570.7563847635</v>
       </c>
       <c r="I6" t="n">
-        <v>167520.3925752466</v>
+        <v>167570.7563847635</v>
       </c>
       <c r="J6" t="n">
-        <v>167520.3925752466</v>
+        <v>167570.7563847635</v>
       </c>
       <c r="K6" t="n">
-        <v>167520.3925752466</v>
+        <v>167570.7563847635</v>
       </c>
       <c r="L6" t="n">
-        <v>167520.3925752466</v>
+        <v>167570.7563847635</v>
       </c>
       <c r="M6" t="n">
-        <v>167520.3925752466</v>
+        <v>167570.7563847635</v>
       </c>
       <c r="N6" t="n">
-        <v>167520.3925752466</v>
+        <v>167570.7563847635</v>
       </c>
       <c r="O6" t="n">
-        <v>167520.3925752466</v>
+        <v>167570.7563847636</v>
       </c>
       <c r="P6" t="n">
-        <v>167520.3925752465</v>
+        <v>167570.7563847636</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310.5332516366505</v>
+        <v>299.4183527195974</v>
       </c>
       <c r="C3" t="n">
         <v>343.3658057592666</v>
@@ -26744,40 +26746,40 @@
         <v>381.4147240567924</v>
       </c>
       <c r="E3" t="n">
-        <v>477.0403442833053</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="F3" t="n">
-        <v>477.0403442833053</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="G3" t="n">
-        <v>477.0403442833053</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="H3" t="n">
-        <v>477.0403442833053</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="I3" t="n">
-        <v>477.0403442833053</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="J3" t="n">
-        <v>477.0403442833053</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="K3" t="n">
-        <v>477.0403442833053</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="L3" t="n">
-        <v>477.0403442833053</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="M3" t="n">
-        <v>477.0403442833053</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="N3" t="n">
-        <v>477.0403442833053</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="O3" t="n">
-        <v>477.0403442833053</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="P3" t="n">
-        <v>477.0403442833053</v>
+        <v>477.2404081416527</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310.5332516366505</v>
+        <v>299.4183527195974</v>
       </c>
       <c r="C3" t="n">
-        <v>32.83255412261603</v>
+        <v>43.94745303966909</v>
       </c>
       <c r="D3" t="n">
         <v>38.04891829752592</v>
       </c>
       <c r="E3" t="n">
-        <v>95.62562022651292</v>
+        <v>95.82568408486031</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27394,46 +27396,46 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>351.311509327079</v>
+        <v>351.7691192106338</v>
       </c>
       <c r="I2" t="n">
-        <v>259.5021784647431</v>
+        <v>261.2248202355961</v>
       </c>
       <c r="J2" t="n">
-        <v>158.8253778181333</v>
+        <v>162.6177924993845</v>
       </c>
       <c r="K2" t="n">
-        <v>163.0834408904676</v>
+        <v>168.7672874155735</v>
       </c>
       <c r="L2" t="n">
-        <v>147.8054628678748</v>
+        <v>154.8567770823586</v>
       </c>
       <c r="M2" t="n">
-        <v>117.6776602800361</v>
+        <v>125.5236059864441</v>
       </c>
       <c r="N2" t="n">
-        <v>112.7659545646609</v>
+        <v>120.7388558752823</v>
       </c>
       <c r="O2" t="n">
-        <v>126.1815109813236</v>
+        <v>133.7100956040799</v>
       </c>
       <c r="P2" t="n">
-        <v>158.6603879426751</v>
+        <v>165.0858607382364</v>
       </c>
       <c r="Q2" t="n">
-        <v>190.3116285160463</v>
+        <v>195.1368909901325</v>
       </c>
       <c r="R2" t="n">
-        <v>236.8756204376074</v>
+        <v>239.6824396098621</v>
       </c>
       <c r="S2" t="n">
-        <v>238.9424074466291</v>
+        <v>239.9606215534526</v>
       </c>
       <c r="T2" t="n">
-        <v>220.0496373254201</v>
+        <v>220.2452372048549</v>
       </c>
       <c r="U2" t="n">
-        <v>248.8017355462638</v>
+        <v>248.8053101871216</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -27470,49 +27472,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.101256442408</v>
+        <v>161.1251639608333</v>
       </c>
       <c r="H3" t="n">
-        <v>138.5837365833196</v>
+        <v>138.8146328796908</v>
       </c>
       <c r="I3" t="n">
-        <v>122.5544427750216</v>
+        <v>123.3775744401053</v>
       </c>
       <c r="J3" t="n">
-        <v>122.3943990612728</v>
+        <v>124.6531352647845</v>
       </c>
       <c r="K3" t="n">
-        <v>93.73553161786263</v>
+        <v>97.59607155587342</v>
       </c>
       <c r="L3" t="n">
-        <v>57.60796323681708</v>
+        <v>62.79893560369175</v>
       </c>
       <c r="M3" t="n">
-        <v>38.63040246897731</v>
+        <v>44.68802237877125</v>
       </c>
       <c r="N3" t="n">
-        <v>18.36733610299063</v>
+        <v>24.58528318678623</v>
       </c>
       <c r="O3" t="n">
-        <v>49.62722163647751</v>
+        <v>55.31542844358489</v>
       </c>
       <c r="P3" t="n">
-        <v>68.39043207217034</v>
+        <v>72.95571951604447</v>
       </c>
       <c r="Q3" t="n">
-        <v>119.461460113702</v>
+        <v>122.5132338691917</v>
       </c>
       <c r="R3" t="n">
-        <v>171.5854376589159</v>
+        <v>173.0698009520273</v>
       </c>
       <c r="S3" t="n">
-        <v>209.6252969998387</v>
+        <v>210.0693686688361</v>
       </c>
       <c r="T3" t="n">
-        <v>230.4431045455406</v>
+        <v>230.5394686220007</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6552314511206</v>
+        <v>249.6568043141749</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -27549,49 +27551,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.3067242881922</v>
+        <v>169.3267675485344</v>
       </c>
       <c r="H4" t="n">
-        <v>168.2208182858378</v>
+        <v>168.3990210914259</v>
       </c>
       <c r="I4" t="n">
-        <v>169.9110798145855</v>
+        <v>170.5138353165135</v>
       </c>
       <c r="J4" t="n">
-        <v>146.1403596259655</v>
+        <v>147.5574181321609</v>
       </c>
       <c r="K4" t="n">
-        <v>123.6226285020081</v>
+        <v>125.9512909308596</v>
       </c>
       <c r="L4" t="n">
-        <v>114.0153833684293</v>
+        <v>116.9952695469455</v>
       </c>
       <c r="M4" t="n">
-        <v>115.3998629910648</v>
+        <v>118.5417351554377</v>
       </c>
       <c r="N4" t="n">
-        <v>101.0482034558176</v>
+        <v>104.1153689225513</v>
       </c>
       <c r="O4" t="n">
-        <v>123.3423432817767</v>
+        <v>126.1753670254217</v>
       </c>
       <c r="P4" t="n">
-        <v>133.7004128108292</v>
+        <v>136.1245540434928</v>
       </c>
       <c r="Q4" t="n">
-        <v>174.6855438859303</v>
+        <v>176.3638936224054</v>
       </c>
       <c r="R4" t="n">
-        <v>224.3062530360477</v>
+        <v>225.2074709056173</v>
       </c>
       <c r="S4" t="n">
-        <v>244.9527436987821</v>
+        <v>245.3020430631099</v>
       </c>
       <c r="T4" t="n">
-        <v>218.3957397582817</v>
+        <v>218.4813791433803</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2235259626242</v>
+        <v>291.2246192313701</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.248374880951358</v>
+        <v>1.203691870229536</v>
       </c>
       <c r="H2" t="n">
-        <v>12.7849192495431</v>
+        <v>12.32730936598824</v>
       </c>
       <c r="I2" t="n">
-        <v>48.12797259787727</v>
+        <v>46.40533082702424</v>
       </c>
       <c r="J2" t="n">
-        <v>105.9542575521454</v>
+        <v>102.1618428708942</v>
       </c>
       <c r="K2" t="n">
-        <v>158.7979662628164</v>
+        <v>153.1141197377105</v>
       </c>
       <c r="L2" t="n">
-        <v>197.0029190257316</v>
+        <v>189.9516048112477</v>
       </c>
       <c r="M2" t="n">
-        <v>219.2037058148503</v>
+        <v>211.3577601084422</v>
       </c>
       <c r="N2" t="n">
-        <v>222.7506509453533</v>
+        <v>214.7777496347319</v>
       </c>
       <c r="O2" t="n">
-        <v>210.3371232228933</v>
+        <v>202.808538600137</v>
       </c>
       <c r="P2" t="n">
-        <v>179.5178683494066</v>
+        <v>173.0923955538453</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.810442925336</v>
+        <v>129.9851804512499</v>
       </c>
       <c r="R2" t="n">
-        <v>78.41822861556081</v>
+        <v>75.61140944330619</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4473425996791</v>
+        <v>27.42912849285559</v>
       </c>
       <c r="T2" t="n">
-        <v>5.464761041364572</v>
+        <v>5.269161161929798</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0998699904761086</v>
+        <v>0.09629534961836289</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.667939446916569</v>
+        <v>0.6440319284912095</v>
       </c>
       <c r="H3" t="n">
-        <v>6.45088886890476</v>
+        <v>6.219992572533525</v>
       </c>
       <c r="I3" t="n">
-        <v>22.99703797497837</v>
+        <v>22.17390630989472</v>
       </c>
       <c r="J3" t="n">
-        <v>63.10562993872726</v>
+        <v>60.84689373521556</v>
       </c>
       <c r="K3" t="n">
-        <v>107.8575728821374</v>
+        <v>103.9970329441266</v>
       </c>
       <c r="L3" t="n">
-        <v>145.0278171912489</v>
+        <v>139.8368448243743</v>
       </c>
       <c r="M3" t="n">
-        <v>169.2406221419745</v>
+        <v>163.1830022321806</v>
       </c>
       <c r="N3" t="n">
-        <v>173.7199178188843</v>
+        <v>167.5019707350887</v>
       </c>
       <c r="O3" t="n">
-        <v>158.9197858635225</v>
+        <v>153.2315790564151</v>
       </c>
       <c r="P3" t="n">
-        <v>127.5471387712876</v>
+        <v>122.9818513274135</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.26188448710451</v>
+        <v>82.21011073161475</v>
       </c>
       <c r="R3" t="n">
-        <v>41.47083688838138</v>
+        <v>39.98647359527003</v>
       </c>
       <c r="S3" t="n">
-        <v>12.40668227057749</v>
+        <v>11.96261060158013</v>
       </c>
       <c r="T3" t="n">
-        <v>2.692264700510205</v>
+        <v>2.595900624050094</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04394338466556377</v>
+        <v>0.0423705216112638</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5599779947546156</v>
+        <v>0.5399347344123887</v>
       </c>
       <c r="H4" t="n">
-        <v>4.978713444272858</v>
+        <v>4.800510638684695</v>
       </c>
       <c r="I4" t="n">
-        <v>16.84006551498426</v>
+        <v>16.2373100130562</v>
       </c>
       <c r="J4" t="n">
-        <v>39.59044422915132</v>
+        <v>38.17338572295588</v>
       </c>
       <c r="K4" t="n">
-        <v>65.05926157239988</v>
+        <v>62.73059914354842</v>
       </c>
       <c r="L4" t="n">
-        <v>83.25345569288169</v>
+        <v>80.27356951436552</v>
       </c>
       <c r="M4" t="n">
-        <v>87.77909603230759</v>
+        <v>84.63722386793471</v>
       </c>
       <c r="N4" t="n">
-        <v>85.69190532458592</v>
+        <v>82.62473985785223</v>
       </c>
       <c r="O4" t="n">
-        <v>79.15034420404334</v>
+        <v>76.31732046039839</v>
       </c>
       <c r="P4" t="n">
-        <v>67.72679311104912</v>
+        <v>65.3026518783856</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.89052099713422</v>
+        <v>45.2121712606592</v>
       </c>
       <c r="R4" t="n">
-        <v>25.1786469277848</v>
+        <v>24.27742905821522</v>
       </c>
       <c r="S4" t="n">
-        <v>9.758889235859979</v>
+        <v>9.409589871532262</v>
       </c>
       <c r="T4" t="n">
-        <v>2.392633250315175</v>
+        <v>2.306993865216569</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0305442542593427</v>
+        <v>0.02945098551340306</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.91775012777208</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H11" t="n">
-        <v>19.64015849604582</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I11" t="n">
-        <v>73.93406180093319</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J11" t="n">
-        <v>162.7666449069957</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K11" t="n">
-        <v>243.945007815588</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L11" t="n">
-        <v>302.6353532883928</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M11" t="n">
-        <v>336.7401421231596</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N11" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>323.1193218406584</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P11" t="n">
-        <v>275.7748655612851</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q11" t="n">
-        <v>207.0954391104474</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R11" t="n">
-        <v>120.465871463663</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S11" t="n">
-        <v>43.70073103660632</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T11" t="n">
-        <v>8.394951184322286</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.026086778269751</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H12" t="n">
-        <v>9.909838095394703</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I12" t="n">
-        <v>35.32798776060328</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J12" t="n">
-        <v>96.94269864345927</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K12" t="n">
-        <v>165.6905127875326</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31859,19 +31861,19 @@
         <v>195.937570843458</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.9790771700125</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R12" t="n">
-        <v>63.70738786485352</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S12" t="n">
-        <v>19.05911186829997</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T12" t="n">
-        <v>4.135849777324127</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8602366864125177</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H13" t="n">
-        <v>7.648286175558572</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I13" t="n">
-        <v>25.86966326047827</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J13" t="n">
-        <v>60.818733729365</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K13" t="n">
-        <v>99.94386229410885</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L13" t="n">
-        <v>127.8937342690029</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M13" t="n">
-        <v>134.8460107619186</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N13" t="n">
-        <v>131.6396740216538</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O13" t="n">
-        <v>121.590545457653</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P13" t="n">
-        <v>104.0417170548376</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.0330919867791</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R13" t="n">
-        <v>38.67936955451192</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S13" t="n">
-        <v>14.99157934411633</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T13" t="n">
-        <v>3.675556751035302</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04692200107704648</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.91775012777208</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H14" t="n">
-        <v>19.64015849604582</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I14" t="n">
-        <v>73.93406180093318</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J14" t="n">
-        <v>162.7666449069957</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K14" t="n">
-        <v>243.9450078155879</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L14" t="n">
-        <v>302.6353532883928</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M14" t="n">
-        <v>336.7401421231595</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N14" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>323.1193218406583</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P14" t="n">
-        <v>275.774865561285</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q14" t="n">
-        <v>207.0954391104473</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R14" t="n">
-        <v>120.465871463663</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S14" t="n">
-        <v>43.70073103660631</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T14" t="n">
-        <v>8.394951184322284</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.026086778269751</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H15" t="n">
-        <v>9.909838095394703</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I15" t="n">
-        <v>35.32798776060327</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J15" t="n">
-        <v>96.94269864345925</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K15" t="n">
-        <v>165.6905127875326</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32096,19 +32098,19 @@
         <v>195.937570843458</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.9790771700124</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R15" t="n">
-        <v>63.70738786485352</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S15" t="n">
-        <v>19.05911186829997</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T15" t="n">
-        <v>4.135849777324126</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H16" t="n">
-        <v>7.648286175558572</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I16" t="n">
-        <v>25.86966326047827</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J16" t="n">
-        <v>60.81873372936499</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K16" t="n">
-        <v>99.94386229410884</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L16" t="n">
-        <v>127.8937342690029</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M16" t="n">
-        <v>134.8460107619185</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N16" t="n">
-        <v>131.6396740216538</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O16" t="n">
-        <v>121.590545457653</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P16" t="n">
-        <v>104.0417170548375</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.0330919867791</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R16" t="n">
-        <v>38.67936955451191</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S16" t="n">
-        <v>14.99157934411632</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T16" t="n">
-        <v>3.675556751035301</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.91775012777208</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H17" t="n">
-        <v>19.64015849604582</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I17" t="n">
-        <v>73.93406180093319</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J17" t="n">
-        <v>162.7666449069957</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K17" t="n">
-        <v>243.945007815588</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L17" t="n">
-        <v>302.6353532883928</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M17" t="n">
-        <v>336.7401421231596</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N17" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>323.1193218406584</v>
+        <v>323.2548334362891</v>
       </c>
       <c r="P17" t="n">
-        <v>275.7748655612851</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q17" t="n">
-        <v>207.0954391104474</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R17" t="n">
-        <v>120.465871463663</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S17" t="n">
-        <v>43.70073103660632</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T17" t="n">
-        <v>8.394951184322286</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1534843523671646</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.026086778269751</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H18" t="n">
-        <v>9.909838095394703</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I18" t="n">
-        <v>35.32798776060328</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J18" t="n">
-        <v>96.94269864345927</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K18" t="n">
-        <v>165.6905127875326</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32333,19 +32335,19 @@
         <v>195.937570843458</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.9790771700125</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R18" t="n">
-        <v>63.70738786485352</v>
+        <v>63.73410582691735</v>
       </c>
       <c r="S18" t="n">
-        <v>19.05911186829997</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T18" t="n">
-        <v>4.135849777324127</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8602366864125177</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H19" t="n">
-        <v>7.648286175558572</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I19" t="n">
-        <v>25.86966326047827</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J19" t="n">
-        <v>60.818733729365</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K19" t="n">
-        <v>99.94386229410885</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L19" t="n">
-        <v>127.8937342690029</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M19" t="n">
-        <v>134.8460107619186</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N19" t="n">
-        <v>131.6396740216538</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O19" t="n">
-        <v>121.590545457653</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P19" t="n">
-        <v>104.0417170548376</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q19" t="n">
-        <v>72.0330919867791</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R19" t="n">
-        <v>38.67936955451192</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S19" t="n">
-        <v>14.99157934411633</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T19" t="n">
-        <v>3.675556751035302</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04692200107704648</v>
+        <v>0.04694167948934295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.91775012777208</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H20" t="n">
-        <v>19.64015849604582</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I20" t="n">
-        <v>73.93406180093319</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J20" t="n">
-        <v>162.7666449069957</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K20" t="n">
-        <v>243.945007815588</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L20" t="n">
-        <v>302.6353532883928</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M20" t="n">
-        <v>336.7401421231596</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N20" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>323.1193218406584</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P20" t="n">
-        <v>275.7748655612851</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q20" t="n">
-        <v>207.0954391104474</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R20" t="n">
-        <v>120.465871463663</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S20" t="n">
-        <v>43.70073103660632</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T20" t="n">
-        <v>8.394951184322286</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.026086778269751</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H21" t="n">
-        <v>9.909838095394703</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I21" t="n">
-        <v>35.32798776060328</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J21" t="n">
-        <v>96.94269864345927</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K21" t="n">
-        <v>165.6905127875326</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32570,19 +32572,19 @@
         <v>195.937570843458</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.9790771700125</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R21" t="n">
-        <v>63.70738786485352</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S21" t="n">
-        <v>19.05911186829997</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T21" t="n">
-        <v>4.135849777324127</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8602366864125177</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H22" t="n">
-        <v>7.648286175558572</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I22" t="n">
-        <v>25.86966326047827</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J22" t="n">
-        <v>60.818733729365</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K22" t="n">
-        <v>99.94386229410885</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L22" t="n">
-        <v>127.8937342690029</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M22" t="n">
-        <v>134.8460107619186</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N22" t="n">
-        <v>131.6396740216538</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O22" t="n">
-        <v>121.590545457653</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P22" t="n">
-        <v>104.0417170548376</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.0330919867791</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R22" t="n">
-        <v>38.67936955451192</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S22" t="n">
-        <v>14.99157934411633</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T22" t="n">
-        <v>3.675556751035302</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04692200107704648</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.91775012777208</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H23" t="n">
-        <v>19.64015849604582</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I23" t="n">
-        <v>73.93406180093319</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J23" t="n">
-        <v>162.7666449069957</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K23" t="n">
-        <v>243.945007815588</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L23" t="n">
-        <v>302.6353532883928</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M23" t="n">
-        <v>336.7401421231596</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N23" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>323.1193218406584</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P23" t="n">
-        <v>275.7748655612851</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q23" t="n">
-        <v>207.0954391104474</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R23" t="n">
-        <v>120.465871463663</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S23" t="n">
-        <v>43.70073103660632</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T23" t="n">
-        <v>8.394951184322286</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.026086778269751</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H24" t="n">
-        <v>9.909838095394703</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I24" t="n">
-        <v>35.32798776060328</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J24" t="n">
-        <v>96.94269864345927</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K24" t="n">
-        <v>165.6905127875326</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32807,19 +32809,19 @@
         <v>195.937570843458</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.9790771700125</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R24" t="n">
-        <v>63.70738786485352</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S24" t="n">
-        <v>19.05911186829997</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T24" t="n">
-        <v>4.135849777324127</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8602366864125177</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H25" t="n">
-        <v>7.648286175558572</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I25" t="n">
-        <v>25.86966326047827</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J25" t="n">
-        <v>60.818733729365</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K25" t="n">
-        <v>99.94386229410885</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L25" t="n">
-        <v>127.8937342690029</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M25" t="n">
-        <v>134.8460107619186</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N25" t="n">
-        <v>131.6396740216538</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O25" t="n">
-        <v>121.590545457653</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P25" t="n">
-        <v>104.0417170548376</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.0330919867791</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R25" t="n">
-        <v>38.67936955451192</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S25" t="n">
-        <v>14.99157934411633</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T25" t="n">
-        <v>3.675556751035302</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04692200107704648</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.91775012777208</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H26" t="n">
-        <v>19.64015849604582</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I26" t="n">
-        <v>73.93406180093319</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J26" t="n">
-        <v>162.7666449069957</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K26" t="n">
-        <v>243.945007815588</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L26" t="n">
-        <v>302.6353532883928</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M26" t="n">
-        <v>336.7401421231596</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N26" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>323.1193218406584</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P26" t="n">
-        <v>275.7748655612851</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q26" t="n">
-        <v>207.0954391104474</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R26" t="n">
-        <v>120.465871463663</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S26" t="n">
-        <v>43.70073103660632</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T26" t="n">
-        <v>8.394951184322286</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.026086778269751</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H27" t="n">
-        <v>9.909838095394703</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I27" t="n">
-        <v>35.32798776060328</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J27" t="n">
-        <v>96.94269864345927</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K27" t="n">
-        <v>165.6905127875326</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33044,19 +33046,19 @@
         <v>195.937570843458</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.9790771700125</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R27" t="n">
-        <v>63.70738786485352</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S27" t="n">
-        <v>19.05911186829997</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T27" t="n">
-        <v>4.135849777324127</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8602366864125177</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H28" t="n">
-        <v>7.648286175558572</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I28" t="n">
-        <v>25.86966326047827</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J28" t="n">
-        <v>60.818733729365</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K28" t="n">
-        <v>99.94386229410885</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L28" t="n">
-        <v>127.8937342690029</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M28" t="n">
-        <v>134.8460107619186</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N28" t="n">
-        <v>131.6396740216538</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O28" t="n">
-        <v>121.590545457653</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P28" t="n">
-        <v>104.0417170548376</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.0330919867791</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R28" t="n">
-        <v>38.67936955451192</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S28" t="n">
-        <v>14.99157934411633</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T28" t="n">
-        <v>3.675556751035302</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04692200107704648</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.91775012777208</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H29" t="n">
-        <v>19.64015849604582</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I29" t="n">
-        <v>73.93406180093319</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J29" t="n">
-        <v>162.7666449069957</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K29" t="n">
-        <v>243.945007815588</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L29" t="n">
-        <v>302.6353532883928</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M29" t="n">
-        <v>336.7401421231596</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N29" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>323.1193218406584</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P29" t="n">
-        <v>275.7748655612851</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q29" t="n">
-        <v>207.0954391104474</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R29" t="n">
-        <v>120.465871463663</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S29" t="n">
-        <v>43.70073103660632</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T29" t="n">
-        <v>8.394951184322286</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.026086778269751</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H30" t="n">
-        <v>9.909838095394703</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I30" t="n">
-        <v>35.32798776060328</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J30" t="n">
-        <v>96.94269864345927</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K30" t="n">
-        <v>165.6905127875326</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33281,19 +33283,19 @@
         <v>195.937570843458</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.9790771700125</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R30" t="n">
-        <v>63.70738786485352</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S30" t="n">
-        <v>19.05911186829997</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T30" t="n">
-        <v>4.135849777324127</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8602366864125177</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H31" t="n">
-        <v>7.648286175558572</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I31" t="n">
-        <v>25.86966326047827</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J31" t="n">
-        <v>60.818733729365</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K31" t="n">
-        <v>99.94386229410885</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L31" t="n">
-        <v>127.8937342690029</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M31" t="n">
-        <v>134.8460107619186</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N31" t="n">
-        <v>131.6396740216538</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O31" t="n">
-        <v>121.590545457653</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P31" t="n">
-        <v>104.0417170548376</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.0330919867791</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R31" t="n">
-        <v>38.67936955451192</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S31" t="n">
-        <v>14.99157934411633</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T31" t="n">
-        <v>3.675556751035302</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04692200107704648</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.91775012777208</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H32" t="n">
-        <v>19.64015849604582</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I32" t="n">
-        <v>73.93406180093319</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J32" t="n">
-        <v>162.7666449069957</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K32" t="n">
-        <v>243.945007815588</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L32" t="n">
-        <v>302.6353532883928</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M32" t="n">
-        <v>336.7401421231596</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N32" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>323.1193218406584</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P32" t="n">
-        <v>275.7748655612851</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q32" t="n">
-        <v>207.0954391104474</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R32" t="n">
-        <v>120.465871463663</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S32" t="n">
-        <v>43.70073103660632</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T32" t="n">
-        <v>8.394951184322286</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.026086778269751</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H33" t="n">
-        <v>9.909838095394703</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I33" t="n">
-        <v>35.32798776060328</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J33" t="n">
-        <v>96.94269864345927</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K33" t="n">
-        <v>165.6905127875326</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33518,19 +33520,19 @@
         <v>195.937570843458</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.9790771700125</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R33" t="n">
-        <v>63.70738786485352</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S33" t="n">
-        <v>19.05911186829997</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T33" t="n">
-        <v>4.135849777324127</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8602366864125177</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H34" t="n">
-        <v>7.648286175558572</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I34" t="n">
-        <v>25.86966326047827</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J34" t="n">
-        <v>60.818733729365</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K34" t="n">
-        <v>99.94386229410885</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L34" t="n">
-        <v>127.8937342690029</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M34" t="n">
-        <v>134.8460107619186</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N34" t="n">
-        <v>131.6396740216538</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O34" t="n">
-        <v>121.590545457653</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P34" t="n">
-        <v>104.0417170548376</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.0330919867791</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R34" t="n">
-        <v>38.67936955451192</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S34" t="n">
-        <v>14.99157934411633</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T34" t="n">
-        <v>3.675556751035302</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04692200107704648</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.91775012777208</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H35" t="n">
-        <v>19.64015849604582</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I35" t="n">
-        <v>73.93406180093319</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J35" t="n">
-        <v>162.7666449069957</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K35" t="n">
-        <v>243.945007815588</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L35" t="n">
-        <v>302.6353532883928</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M35" t="n">
-        <v>336.7401421231596</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N35" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>323.1193218406584</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P35" t="n">
-        <v>275.7748655612851</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q35" t="n">
-        <v>207.0954391104474</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R35" t="n">
-        <v>120.465871463663</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S35" t="n">
-        <v>43.70073103660632</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T35" t="n">
-        <v>8.394951184322286</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.026086778269751</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H36" t="n">
-        <v>9.909838095394703</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I36" t="n">
-        <v>35.32798776060328</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J36" t="n">
-        <v>96.94269864345927</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K36" t="n">
-        <v>165.6905127875326</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33755,19 +33757,19 @@
         <v>195.937570843458</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.9790771700125</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R36" t="n">
-        <v>63.70738786485352</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S36" t="n">
-        <v>19.05911186829997</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T36" t="n">
-        <v>4.135849777324127</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8602366864125177</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H37" t="n">
-        <v>7.648286175558572</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I37" t="n">
-        <v>25.86966326047827</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J37" t="n">
-        <v>60.818733729365</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K37" t="n">
-        <v>99.94386229410885</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L37" t="n">
-        <v>127.8937342690029</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M37" t="n">
-        <v>134.8460107619186</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N37" t="n">
-        <v>131.6396740216538</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O37" t="n">
-        <v>121.590545457653</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P37" t="n">
-        <v>104.0417170548376</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.0330919867791</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R37" t="n">
-        <v>38.67936955451192</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S37" t="n">
-        <v>14.99157934411633</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T37" t="n">
-        <v>3.675556751035302</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04692200107704648</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.91775012777208</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H38" t="n">
-        <v>19.64015849604582</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I38" t="n">
-        <v>73.93406180093319</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J38" t="n">
-        <v>162.7666449069957</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K38" t="n">
-        <v>243.945007815588</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L38" t="n">
-        <v>302.6353532883928</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M38" t="n">
-        <v>336.7401421231596</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N38" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>323.1193218406584</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P38" t="n">
-        <v>275.7748655612851</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q38" t="n">
-        <v>207.0954391104474</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R38" t="n">
-        <v>120.465871463663</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S38" t="n">
-        <v>43.70073103660632</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T38" t="n">
-        <v>8.394951184322286</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.026086778269751</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H39" t="n">
-        <v>9.909838095394703</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I39" t="n">
-        <v>35.32798776060328</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J39" t="n">
-        <v>96.94269864345927</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K39" t="n">
-        <v>165.6905127875326</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33992,19 +33994,19 @@
         <v>195.937570843458</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.9790771700125</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R39" t="n">
-        <v>63.70738786485352</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S39" t="n">
-        <v>19.05911186829997</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T39" t="n">
-        <v>4.135849777324127</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8602366864125177</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H40" t="n">
-        <v>7.648286175558572</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I40" t="n">
-        <v>25.86966326047827</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J40" t="n">
-        <v>60.818733729365</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K40" t="n">
-        <v>99.94386229410885</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L40" t="n">
-        <v>127.8937342690029</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M40" t="n">
-        <v>134.8460107619186</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N40" t="n">
-        <v>131.6396740216538</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O40" t="n">
-        <v>121.590545457653</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P40" t="n">
-        <v>104.0417170548376</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.0330919867791</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R40" t="n">
-        <v>38.67936955451192</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S40" t="n">
-        <v>14.99157934411633</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T40" t="n">
-        <v>3.675556751035302</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04692200107704648</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.91775012777208</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H41" t="n">
-        <v>19.64015849604582</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I41" t="n">
-        <v>73.93406180093319</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J41" t="n">
-        <v>162.7666449069957</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K41" t="n">
-        <v>243.945007815588</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L41" t="n">
-        <v>302.6353532883928</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M41" t="n">
-        <v>336.7401421231596</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N41" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>323.1193218406584</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P41" t="n">
-        <v>275.7748655612851</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q41" t="n">
-        <v>207.0954391104474</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R41" t="n">
-        <v>120.465871463663</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S41" t="n">
-        <v>43.70073103660632</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T41" t="n">
-        <v>8.394951184322286</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.026086778269751</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H42" t="n">
-        <v>9.909838095394703</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I42" t="n">
-        <v>35.32798776060328</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J42" t="n">
-        <v>96.94269864345927</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K42" t="n">
-        <v>165.6905127875326</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34229,19 +34231,19 @@
         <v>195.937570843458</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.9790771700125</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R42" t="n">
-        <v>63.70738786485352</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S42" t="n">
-        <v>19.05911186829997</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T42" t="n">
-        <v>4.135849777324127</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8602366864125177</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H43" t="n">
-        <v>7.648286175558572</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I43" t="n">
-        <v>25.86966326047827</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J43" t="n">
-        <v>60.818733729365</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K43" t="n">
-        <v>99.94386229410885</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L43" t="n">
-        <v>127.8937342690029</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M43" t="n">
-        <v>134.8460107619186</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N43" t="n">
-        <v>131.6396740216538</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O43" t="n">
-        <v>121.590545457653</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P43" t="n">
-        <v>104.0417170548376</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.0330919867791</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R43" t="n">
-        <v>38.67936955451192</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S43" t="n">
-        <v>14.99157934411633</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T43" t="n">
-        <v>3.675556751035302</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04692200107704648</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.91775012777208</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H44" t="n">
-        <v>19.64015849604582</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I44" t="n">
-        <v>73.93406180093319</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J44" t="n">
-        <v>162.7666449069957</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K44" t="n">
-        <v>243.945007815588</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L44" t="n">
-        <v>302.6353532883928</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M44" t="n">
-        <v>336.7401421231596</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N44" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>323.1193218406584</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P44" t="n">
-        <v>275.7748655612851</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q44" t="n">
-        <v>207.0954391104474</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R44" t="n">
-        <v>120.465871463663</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S44" t="n">
-        <v>43.70073103660632</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T44" t="n">
-        <v>8.394951184322286</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.026086778269751</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H45" t="n">
-        <v>9.909838095394703</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I45" t="n">
-        <v>35.32798776060328</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J45" t="n">
-        <v>96.94269864345927</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K45" t="n">
-        <v>165.6905127875326</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L45" t="n">
         <v>202.635780428066</v>
@@ -34466,19 +34468,19 @@
         <v>195.937570843458</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.9790771700125</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R45" t="n">
-        <v>63.70738786485352</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S45" t="n">
-        <v>19.05911186829997</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T45" t="n">
-        <v>4.135849777324127</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8602366864125177</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H46" t="n">
-        <v>7.648286175558572</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I46" t="n">
-        <v>25.86966326047827</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J46" t="n">
-        <v>60.818733729365</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K46" t="n">
-        <v>99.94386229410885</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L46" t="n">
-        <v>127.8937342690029</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M46" t="n">
-        <v>134.8460107619186</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N46" t="n">
-        <v>131.6396740216538</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O46" t="n">
-        <v>121.590545457653</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P46" t="n">
-        <v>104.0417170548376</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.0330919867791</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R46" t="n">
-        <v>38.67936955451192</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S46" t="n">
-        <v>14.99157934411633</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T46" t="n">
-        <v>3.675556751035302</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04692200107704648</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
